--- a/Reports/ZacksRank/D3L.xlsx
+++ b/Reports/ZacksRank/D3L.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/ZacksRank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320B86FE-FA65-A942-A8D4-1D5F557D75C4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{C3F371ED-2A01-9749-8E55-60D150C3B783}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="700"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11872" uniqueCount="311">
   <si>
     <t>NBR</t>
   </si>
@@ -87,12 +87,938 @@
       <t>, SB</t>
     </r>
   </si>
+  <si>
+    <t>GDXS
+Jun 29, 12, SS</t>
+  </si>
+  <si>
+    <t>ITUB</t>
+  </si>
+  <si>
+    <t>GDXS</t>
+  </si>
+  <si>
+    <t>LMFA</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ITUB
+Jun 29, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, B</t>
+    </r>
+  </si>
+  <si>
+    <t>LMFA
+Jun 29, 1.2, SB</t>
+  </si>
+  <si>
+    <t>UEPS</t>
+  </si>
+  <si>
+    <t>UEPS
+Jun 29, 12, SB</t>
+  </si>
+  <si>
+    <t>GST
+Jun 29, 0.95, SB</t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
+    <t>Jun_29</t>
+  </si>
+  <si>
+    <t>Hold       ($6.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.03)</t>
+  </si>
+  <si>
+    <t>UN         (0)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($11.80)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.38)</t>
+  </si>
+  <si>
+    <t>UN         ($0.44)</t>
+  </si>
+  <si>
+    <t>UN         ($9.08)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.56)</t>
+  </si>
+  <si>
+    <t>UN         (14.35)</t>
+  </si>
+  <si>
+    <t>Jul_01</t>
+  </si>
+  <si>
+    <t>VEDL
+Jul 02, 19, SB</t>
+  </si>
+  <si>
+    <t>STAF
+Jul 02, 2.7, SB</t>
+  </si>
+  <si>
+    <t>Jul_02</t>
+  </si>
+  <si>
+    <t>Hold       ($6.21)</t>
+  </si>
+  <si>
+    <t>Hold       ($65.22)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($11.45)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.34)</t>
+  </si>
+  <si>
+    <t>UN         ($0.43)</t>
+  </si>
+  <si>
+    <t>UN         ($9.10)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.57)</t>
+  </si>
+  <si>
+    <t>UN         ($13.58)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.40)</t>
+  </si>
+  <si>
+    <t>VEDL</t>
+  </si>
+  <si>
+    <t>STAF</t>
+  </si>
+  <si>
+    <t>Jul_08</t>
+  </si>
+  <si>
+    <t>Hold       ($6.29)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($12.10)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.87)</t>
+  </si>
+  <si>
+    <t>UN         ($0.40)</t>
+  </si>
+  <si>
+    <t>UN         ($9.29)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.55)</t>
+  </si>
+  <si>
+    <t>UN         ($12.75)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.37)</t>
+  </si>
+  <si>
+    <t>Jul_18</t>
+  </si>
+  <si>
+    <t>Hold       ($6.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.06)</t>
+  </si>
+  <si>
+    <t>Buy        ($11.60)</t>
+  </si>
+  <si>
+    <t>StrongSell ($11.57)</t>
+  </si>
+  <si>
+    <t>UN         ($0.37)</t>
+  </si>
+  <si>
+    <t>UN         ($9.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.48)</t>
+  </si>
+  <si>
+    <t>UN         ($11.98)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.05)</t>
+  </si>
+  <si>
+    <t>GOL
+Jul 12, 12, SB</t>
+  </si>
+  <si>
+    <t>GOL</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Jul_20</t>
+  </si>
+  <si>
+    <t>Hold       ($5.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.09)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.85)</t>
+  </si>
+  <si>
+    <t>StrongSell ($12.22)</t>
+  </si>
+  <si>
+    <t>UN         ($9.30)</t>
+  </si>
+  <si>
+    <t>UN         ($11.77)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.09)</t>
+  </si>
+  <si>
+    <t>Jul_24</t>
+  </si>
+  <si>
+    <t>Hold       ($5.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($65.52)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.88)</t>
+  </si>
+  <si>
+    <t>StrongSell ($12.15)</t>
+  </si>
+  <si>
+    <t>UN         ($9.34)</t>
+  </si>
+  <si>
+    <t>Buy        ($0.11)</t>
+  </si>
+  <si>
+    <t>UN         ($12.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.43)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.39)</t>
+  </si>
+  <si>
+    <t>Jul_29</t>
+  </si>
+  <si>
+    <t>Hold       ($6.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.20)</t>
+  </si>
+  <si>
+    <t>StrongSell ($12.43)</t>
+  </si>
+  <si>
+    <t>UN         ($9.37)</t>
+  </si>
+  <si>
+    <t>Buy        ($0.13)</t>
+  </si>
+  <si>
+    <t>UN         ($13.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.91)</t>
+  </si>
+  <si>
+    <t>Aug_01</t>
+  </si>
+  <si>
+    <t>Hold       ($6.38)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.05)</t>
+  </si>
+  <si>
+    <t>StrongSell ($12.10)</t>
+  </si>
+  <si>
+    <t>UN         ($0.38)</t>
+  </si>
+  <si>
+    <t>UN         ($9.47)</t>
+  </si>
+  <si>
+    <t>Buy        ($0.17)</t>
+  </si>
+  <si>
+    <t>UN         ($12.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.05)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.19)</t>
+  </si>
+  <si>
+    <t>Aug_05</t>
+  </si>
+  <si>
+    <t>Hold       ($6.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($65.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.20)</t>
+  </si>
+  <si>
+    <t>StrongSell ($12.62)</t>
+  </si>
+  <si>
+    <t>UN         ($9.15)</t>
+  </si>
+  <si>
+    <t>Buy        ($0.16)</t>
+  </si>
+  <si>
+    <t>UN         ($13.10)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.79)</t>
+  </si>
+  <si>
+    <t>Aug_12</t>
+  </si>
+  <si>
+    <t>Hold       ($6.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.70)</t>
+  </si>
+  <si>
+    <t>Sell       ($11.32)</t>
+  </si>
+  <si>
+    <t>UN         ($9.16)</t>
+  </si>
+  <si>
+    <t>Buy        ($0.12)</t>
+  </si>
+  <si>
+    <t>UN         ($12.64)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.27)</t>
+  </si>
+  <si>
+    <t>Sell       ($6.27)</t>
+  </si>
+  <si>
+    <t>Aug_14</t>
+  </si>
+  <si>
+    <t>Hold       ($6.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.86)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.83)</t>
+  </si>
+  <si>
+    <t>Sell       ($11.49)</t>
+  </si>
+  <si>
+    <t>UN         ($0.39)</t>
+  </si>
+  <si>
+    <t>UN         ($8.99)</t>
+  </si>
+  <si>
+    <t>Buy        ($0.10)</t>
+  </si>
+  <si>
+    <t>UN         ($12.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.35)</t>
+  </si>
+  <si>
+    <t>Sell       ($6.39)</t>
+  </si>
+  <si>
+    <t>Aug_18</t>
+  </si>
+  <si>
+    <t>Hold       ($5.98)</t>
+  </si>
+  <si>
+    <t>Hold       ($62.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.90)</t>
+  </si>
+  <si>
+    <t>StrongSell ($11.01)</t>
+  </si>
+  <si>
+    <t>UN         ($8.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.09)</t>
+  </si>
+  <si>
+    <t>UN         ($12.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.11)</t>
+  </si>
+  <si>
+    <t>Sell       ($6.17)</t>
+  </si>
+  <si>
+    <t>Aug_21</t>
+  </si>
+  <si>
+    <t>Hold       ($6.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.28)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.46)</t>
+  </si>
+  <si>
+    <t>UN         ($8.81)</t>
+  </si>
+  <si>
+    <t>Hold       ($0.10)</t>
+  </si>
+  <si>
+    <t>UN         ($12.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.60)</t>
+  </si>
+  <si>
+    <t>Aug_26</t>
+  </si>
+  <si>
+    <t>Hold       ($65.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.25)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.18)</t>
+  </si>
+  <si>
+    <t>UN         ($0.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.94)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.11)</t>
+  </si>
+  <si>
+    <t>Sep_02</t>
+  </si>
+  <si>
+    <t>Hold       ($6.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($63.14)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.95)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.41)</t>
+  </si>
+  <si>
+    <t>UN         ($0.49)</t>
+  </si>
+  <si>
+    <t>UN         ($7.24)</t>
+  </si>
+  <si>
+    <t>Sell       ($0.08)</t>
+  </si>
+  <si>
+    <t>UN         ($12.78)</t>
+  </si>
+  <si>
+    <t>Sell       ($2.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.51)</t>
+  </si>
+  <si>
+    <t>Sep_11</t>
+  </si>
+  <si>
+    <t>Hold       ($6.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($60.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.35)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.01)</t>
+  </si>
+  <si>
+    <t>UN         ($0.53)</t>
+  </si>
+  <si>
+    <t>UN         ($6.00)</t>
+  </si>
+  <si>
+    <t>UN         ($0.06)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.66)</t>
+  </si>
+  <si>
+    <t>Sep_24</t>
+  </si>
+  <si>
+    <t>Hold       ($61.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.45)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.53)</t>
+  </si>
+  <si>
+    <t>UN         ($7.68)</t>
+  </si>
+  <si>
+    <t>UN         ($12.71)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.28)</t>
+  </si>
+  <si>
+    <t>Oct_01</t>
+  </si>
+  <si>
+    <t>Hold       ($6.39)</t>
+  </si>
+  <si>
+    <t>Hold       ($61.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.29)</t>
+  </si>
+  <si>
+    <t>StrongSell ($10.86)</t>
+  </si>
+  <si>
+    <t>UN         ($0.54)</t>
+  </si>
+  <si>
+    <t>UN         ($8.02)</t>
+  </si>
+  <si>
+    <t>UN         ($12.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($2.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.29)</t>
+  </si>
+  <si>
+    <t>Oct_06</t>
+  </si>
+  <si>
+    <t>Hold       ($6.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($63.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.56)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.22)</t>
+  </si>
+  <si>
+    <t>UN         ($0.52)</t>
+  </si>
+  <si>
+    <t>UN         ($7.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.42)</t>
+  </si>
+  <si>
+    <t>Oct_22</t>
+  </si>
+  <si>
+    <t>Hold       ($5.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($56.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.21)</t>
+  </si>
+  <si>
+    <t>UN         ($3.70)</t>
+  </si>
+  <si>
+    <t>UN         ($6.95)</t>
+  </si>
+  <si>
+    <t>UN         ($11.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.97)</t>
+  </si>
+  <si>
+    <t>Nov_04</t>
+  </si>
+  <si>
+    <t>Hold       ($5.44)</t>
+  </si>
+  <si>
+    <t>StrongSell ($51.40)</t>
+  </si>
+  <si>
+    <t>StrongSell ($6.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.66)</t>
+  </si>
+  <si>
+    <t>UN         ($1.95)</t>
+  </si>
+  <si>
+    <t>UN         ($7.00)</t>
+  </si>
+  <si>
+    <t>UN         ($12.06)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.87)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.85)</t>
+  </si>
+  <si>
+    <t>Nov_11</t>
+  </si>
+  <si>
+    <t>Hold       ($5.24)</t>
+  </si>
+  <si>
+    <t>StrongSell ($50.40)</t>
+  </si>
+  <si>
+    <t>StrongSell ($6.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.56)</t>
+  </si>
+  <si>
+    <t>UN         ($1.77)</t>
+  </si>
+  <si>
+    <t>UN         ($4.84)</t>
+  </si>
+  <si>
+    <t>UN         ($11.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.86)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.78)</t>
+  </si>
+  <si>
+    <t>Nov_19</t>
+  </si>
+  <si>
+    <t>Hold       ($4.42)</t>
+  </si>
+  <si>
+    <t>StrongSell ($48.31)</t>
+  </si>
+  <si>
+    <t>StrongSell ($7.14)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.99)</t>
+  </si>
+  <si>
+    <t>UN         ($1.39)</t>
+  </si>
+  <si>
+    <t>UN         ($4.60)</t>
+  </si>
+  <si>
+    <t>UN         ($11.56)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.89)</t>
+  </si>
+  <si>
+    <t>Nov_24</t>
+  </si>
+  <si>
+    <t>Hold       ($3.87)</t>
+  </si>
+  <si>
+    <t>StrongSell ($46.37)</t>
+  </si>
+  <si>
+    <t>StrongSell ($6.63)</t>
+  </si>
+  <si>
+    <t>Sell       ($13.49)</t>
+  </si>
+  <si>
+    <t>UN         ($1.60)</t>
+  </si>
+  <si>
+    <t>UN         ($4.75)</t>
+  </si>
+  <si>
+    <t>UN         ($11.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.72)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.53)</t>
+  </si>
+  <si>
+    <t>Dec_02</t>
+  </si>
+  <si>
+    <t>Hold       ($3.23)</t>
+  </si>
+  <si>
+    <t>Sell       ($45.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.86)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.33)</t>
+  </si>
+  <si>
+    <t>UN         ($1.43)</t>
+  </si>
+  <si>
+    <t>UN         ($5.46)</t>
+  </si>
+  <si>
+    <t>UN         ($11.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($1.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.41)</t>
+  </si>
+  <si>
+    <t>Dec_09</t>
+  </si>
+  <si>
+    <t>Hold       ($3.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($43.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.07)</t>
+  </si>
+  <si>
+    <t>UN         ($1.23)</t>
+  </si>
+  <si>
+    <t>UN         ($4.76)</t>
+  </si>
+  <si>
+    <t>UN         ($10.84)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.24)</t>
+  </si>
+  <si>
+    <t>Dec_16</t>
+  </si>
+  <si>
+    <t>Hold       ($2.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($39.10)</t>
+  </si>
+  <si>
+    <t>Sell       ($4.23)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.04)</t>
+  </si>
+  <si>
+    <t>UN         ($1.22)</t>
+  </si>
+  <si>
+    <t>UN         ($4.86)</t>
+  </si>
+  <si>
+    <t>UN         ($11.13)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.73)</t>
+  </si>
+  <si>
+    <t>Dec_30</t>
+  </si>
+  <si>
+    <t>Hold       ($2.01)</t>
+  </si>
+  <si>
+    <t>StrongSell ($36.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.65)</t>
+  </si>
+  <si>
+    <t>UN         ($1.24)</t>
+  </si>
+  <si>
+    <t>UN         ($4.50)</t>
+  </si>
+  <si>
+    <t>UN         ($11.36)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.50)</t>
+  </si>
+  <si>
+    <t>Buy        ($12.96)</t>
+  </si>
+  <si>
+    <t>Jan_07</t>
+  </si>
+  <si>
+    <t>Hold       ($2.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($40.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.88)</t>
+  </si>
+  <si>
+    <t>UN         ($1.27)</t>
+  </si>
+  <si>
+    <t>UN         ($4.94)</t>
+  </si>
+  <si>
+    <t>UN         ($11.18)</t>
+  </si>
+  <si>
+    <t>Sell       ($1.79)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -115,8 +1041,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +1070,276 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
       </patternFill>
     </fill>
   </fills>
@@ -149,28 +1352,391 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="367">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle builtinId="27" name="Bad" xfId="2"/>
+    <cellStyle builtinId="26" name="Good" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -187,10 +1753,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -225,7 +1791,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -277,7 +1843,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,21 +1954,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -419,7 +1985,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -471,85 +2037,1741 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="17.5" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="355" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="343" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="331" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="319" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" s="307" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="295" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="283" t="s">
+        <v>244</v>
+      </c>
+      <c r="I2" s="271" t="s">
+        <v>234</v>
+      </c>
+      <c r="J2" s="259" t="s">
+        <v>224</v>
+      </c>
+      <c r="K2" s="247" t="s">
+        <v>215</v>
+      </c>
+      <c r="L2" s="235" t="s">
+        <v>206</v>
+      </c>
+      <c r="M2" s="223" t="s">
+        <v>196</v>
+      </c>
+      <c r="N2" s="211" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="199" t="s">
+        <v>179</v>
+      </c>
+      <c r="P2" s="187" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q2" s="175" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="163" t="s">
+        <v>151</v>
+      </c>
+      <c r="S2" s="151" t="s">
+        <v>141</v>
+      </c>
+      <c r="T2" s="139" t="s">
+        <v>130</v>
+      </c>
+      <c r="U2" s="127" t="s">
+        <v>120</v>
+      </c>
+      <c r="V2" s="115" t="s">
+        <v>111</v>
+      </c>
+      <c r="W2" s="103" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y2" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z2" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="356" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="344" t="s">
+        <v>295</v>
+      </c>
+      <c r="D3" s="332" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="320" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="308" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="296" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" s="284" t="s">
+        <v>245</v>
+      </c>
+      <c r="I3" s="272" t="s">
+        <v>235</v>
+      </c>
+      <c r="J3" s="260" t="s">
+        <v>225</v>
+      </c>
+      <c r="K3" s="248" t="s">
+        <v>216</v>
+      </c>
+      <c r="L3" s="236" t="s">
+        <v>207</v>
+      </c>
+      <c r="M3" s="224" t="s">
+        <v>197</v>
+      </c>
+      <c r="N3" s="212" t="s">
+        <v>189</v>
+      </c>
+      <c r="O3" s="200" t="s">
+        <v>180</v>
+      </c>
+      <c r="P3" s="188" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q3" s="176" t="s">
+        <v>161</v>
+      </c>
+      <c r="R3" s="164" t="s">
+        <v>152</v>
+      </c>
+      <c r="S3" s="152" t="s">
+        <v>142</v>
+      </c>
+      <c r="T3" s="140" t="s">
+        <v>131</v>
+      </c>
+      <c r="U3" s="128" t="s">
+        <v>121</v>
+      </c>
+      <c r="V3" s="116" t="s">
+        <v>112</v>
+      </c>
+      <c r="W3" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y3" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB3" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="357" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="345" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="333" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="321" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="309" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="297" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="285" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="273" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="261" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="249" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="237" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="225" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="213" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="201" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="189" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" s="177" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="165" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="153" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4" s="141" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="V4" s="117" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y4" s="81" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="358" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="346" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="334" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="322" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="310" t="s">
+        <v>266</v>
+      </c>
+      <c r="G5" s="298" t="s">
+        <v>256</v>
+      </c>
+      <c r="H5" s="286" t="s">
+        <v>246</v>
+      </c>
+      <c r="I5" s="274" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" s="262" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="250" t="s">
+        <v>217</v>
+      </c>
+      <c r="L5" s="238" t="s">
+        <v>208</v>
+      </c>
+      <c r="M5" s="226" t="s">
+        <v>198</v>
+      </c>
+      <c r="N5" s="214" t="s">
+        <v>190</v>
+      </c>
+      <c r="O5" s="202" t="s">
+        <v>181</v>
+      </c>
+      <c r="P5" s="190" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="178" t="s">
+        <v>162</v>
+      </c>
+      <c r="R5" s="166" t="s">
+        <v>153</v>
+      </c>
+      <c r="S5" s="154" t="s">
+        <v>143</v>
+      </c>
+      <c r="T5" s="142" t="s">
+        <v>132</v>
+      </c>
+      <c r="U5" s="130" t="s">
+        <v>122</v>
+      </c>
+      <c r="V5" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="W5" s="106" t="s">
+        <v>102</v>
+      </c>
+      <c r="X5" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y5" s="82" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z5" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA5" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB5" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="359" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="347" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="335" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="323" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="311" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="299" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="287" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="275" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="263" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="251" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="239" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="227" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="215" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="203" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="191" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" s="179" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="167" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="155" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="143" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="131" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z6" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA6" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB6" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC6" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD6" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF6" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="360" t="s">
+        <v>306</v>
+      </c>
+      <c r="C7" s="348" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="336" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="324" t="s">
+        <v>277</v>
+      </c>
+      <c r="F7" s="312" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="300" t="s">
+        <v>257</v>
+      </c>
+      <c r="H7" s="288" t="s">
+        <v>247</v>
+      </c>
+      <c r="I7" s="276" t="s">
+        <v>237</v>
+      </c>
+      <c r="J7" s="264" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="252" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="240" t="s">
+        <v>209</v>
+      </c>
+      <c r="M7" s="228" t="s">
+        <v>199</v>
+      </c>
+      <c r="N7" s="216" t="s">
+        <v>191</v>
+      </c>
+      <c r="O7" s="204" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="192" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q7" s="180" t="s">
+        <v>163</v>
+      </c>
+      <c r="R7" s="168" t="s">
+        <v>154</v>
+      </c>
+      <c r="S7" s="156" t="s">
+        <v>144</v>
+      </c>
+      <c r="T7" s="144" t="s">
+        <v>133</v>
+      </c>
+      <c r="U7" s="132" t="s">
+        <v>123</v>
+      </c>
+      <c r="V7" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="W7" s="108" t="s">
+        <v>103</v>
+      </c>
+      <c r="X7" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z7" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA7" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB7" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD7" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF7" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="361" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="349" t="s">
+        <v>297</v>
+      </c>
+      <c r="D8" s="337" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" s="325" t="s">
+        <v>278</v>
+      </c>
+      <c r="F8" s="313" t="s">
+        <v>268</v>
+      </c>
+      <c r="G8" s="301" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="289" t="s">
+        <v>248</v>
+      </c>
+      <c r="I8" s="277" t="s">
+        <v>238</v>
+      </c>
+      <c r="J8" s="265" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="253" t="s">
+        <v>219</v>
+      </c>
+      <c r="L8" s="241" t="s">
+        <v>210</v>
+      </c>
+      <c r="M8" s="229" t="s">
+        <v>200</v>
+      </c>
+      <c r="N8" s="217" t="s">
+        <v>172</v>
+      </c>
+      <c r="O8" s="205" t="s">
+        <v>183</v>
+      </c>
+      <c r="P8" s="193" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q8" s="181" t="s">
+        <v>164</v>
+      </c>
+      <c r="R8" s="169" t="s">
+        <v>62</v>
+      </c>
+      <c r="S8" s="157" t="s">
+        <v>104</v>
+      </c>
+      <c r="T8" s="145" t="s">
+        <v>134</v>
+      </c>
+      <c r="U8" s="133" t="s">
+        <v>62</v>
+      </c>
+      <c r="V8" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="W8" s="109" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y8" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z8" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA8" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB8" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC8" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD8" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF8" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row customFormat="1" r="9" s="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="362" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="350" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="338" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="326" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" s="314" t="s">
+        <v>269</v>
+      </c>
+      <c r="G9" s="302" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="290" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="278" t="s">
+        <v>239</v>
+      </c>
+      <c r="J9" s="266" t="s">
+        <v>229</v>
+      </c>
+      <c r="K9" s="254" t="s">
+        <v>220</v>
+      </c>
+      <c r="L9" s="242" t="s">
+        <v>211</v>
+      </c>
+      <c r="M9" s="230" t="s">
+        <v>201</v>
+      </c>
+      <c r="N9" s="218" t="s">
+        <v>192</v>
+      </c>
+      <c r="O9" s="206" t="s">
+        <v>184</v>
+      </c>
+      <c r="P9" s="194" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q9" s="182" t="s">
+        <v>155</v>
+      </c>
+      <c r="R9" s="170" t="s">
+        <v>155</v>
+      </c>
+      <c r="S9" s="158" t="s">
+        <v>145</v>
+      </c>
+      <c r="T9" s="146" t="s">
+        <v>135</v>
+      </c>
+      <c r="U9" s="134" t="s">
+        <v>124</v>
+      </c>
+      <c r="V9" s="122" t="s">
+        <v>115</v>
+      </c>
+      <c r="W9" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" s="98" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y9" s="86" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z9" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB9" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD9" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF9" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row customFormat="1" r="10" s="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="363" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="351" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="339" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="327" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="315" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="303" t="s">
+        <v>185</v>
+      </c>
+      <c r="H10" s="291" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="279" t="s">
+        <v>185</v>
+      </c>
+      <c r="J10" s="267" t="s">
+        <v>185</v>
+      </c>
+      <c r="K10" s="255" t="s">
+        <v>185</v>
+      </c>
+      <c r="L10" s="243" t="s">
+        <v>185</v>
+      </c>
+      <c r="M10" s="231" t="s">
+        <v>185</v>
+      </c>
+      <c r="N10" s="219" t="s">
+        <v>185</v>
+      </c>
+      <c r="O10" s="207" t="s">
+        <v>185</v>
+      </c>
+      <c r="P10" s="195" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q10" s="183" t="s">
+        <v>146</v>
+      </c>
+      <c r="R10" s="171" t="s">
+        <v>156</v>
+      </c>
+      <c r="S10" s="159" t="s">
+        <v>146</v>
+      </c>
+      <c r="T10" s="147" t="s">
+        <v>136</v>
+      </c>
+      <c r="U10" s="135" t="s">
+        <v>125</v>
+      </c>
+      <c r="V10" s="123" t="s">
+        <v>116</v>
+      </c>
+      <c r="W10" s="111" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y10" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z10" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA10" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB10" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC10" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD10" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row customFormat="1" r="11" s="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="364" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="352" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="340" t="s">
+        <v>290</v>
+      </c>
+      <c r="E11" s="328" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="316" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="304" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="292" t="s">
+        <v>250</v>
+      </c>
+      <c r="I11" s="280" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="268" t="s">
+        <v>230</v>
+      </c>
+      <c r="K11" s="256" t="s">
+        <v>221</v>
+      </c>
+      <c r="L11" s="244" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" s="232" t="s">
+        <v>202</v>
+      </c>
+      <c r="N11" s="220" t="s">
+        <v>193</v>
+      </c>
+      <c r="O11" s="208" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="196" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="184" t="s">
+        <v>107</v>
+      </c>
+      <c r="R11" s="172" t="s">
+        <v>157</v>
+      </c>
+      <c r="S11" s="160" t="s">
+        <v>147</v>
+      </c>
+      <c r="T11" s="148" t="s">
+        <v>137</v>
+      </c>
+      <c r="U11" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="V11" s="124" t="s">
+        <v>117</v>
+      </c>
+      <c r="W11" s="112" t="s">
+        <v>107</v>
+      </c>
+      <c r="X11" s="100" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y11" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z11" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA11" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB11" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC11" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD11" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE11" s="0"/>
+      <c r="AF11" s="0"/>
+    </row>
+    <row customFormat="1" r="12" s="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="365" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="353" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="341" t="s">
+        <v>291</v>
+      </c>
+      <c r="E12" s="329" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="317" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" s="305" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" s="293" t="s">
+        <v>251</v>
+      </c>
+      <c r="I12" s="281" t="s">
+        <v>241</v>
+      </c>
+      <c r="J12" s="269" t="s">
+        <v>231</v>
+      </c>
+      <c r="K12" s="257" t="s">
+        <v>165</v>
+      </c>
+      <c r="L12" s="245" t="s">
+        <v>212</v>
+      </c>
+      <c r="M12" s="233" t="s">
+        <v>203</v>
+      </c>
+      <c r="N12" s="221" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" s="209" t="s">
+        <v>186</v>
+      </c>
+      <c r="P12" s="197" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q12" s="185" t="s">
+        <v>165</v>
+      </c>
+      <c r="R12" s="173" t="s">
+        <v>158</v>
+      </c>
+      <c r="S12" s="161" t="s">
+        <v>148</v>
+      </c>
+      <c r="T12" s="149" t="s">
+        <v>138</v>
+      </c>
+      <c r="U12" s="137" t="s">
+        <v>127</v>
+      </c>
+      <c r="V12" s="125" t="s">
+        <v>108</v>
+      </c>
+      <c r="W12" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="X12" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y12" s="89" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z12" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA12" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB12" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC12" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD12" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+    </row>
+    <row customFormat="1" r="13" s="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="366" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="354" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="342" t="s">
+        <v>292</v>
+      </c>
+      <c r="E13" s="330" t="s">
+        <v>282</v>
+      </c>
+      <c r="F13" s="318" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="306" t="s">
+        <v>262</v>
+      </c>
+      <c r="H13" s="294" t="s">
+        <v>252</v>
+      </c>
+      <c r="I13" s="282" t="s">
+        <v>242</v>
+      </c>
+      <c r="J13" s="270" t="s">
+        <v>232</v>
+      </c>
+      <c r="K13" s="258" t="s">
+        <v>222</v>
+      </c>
+      <c r="L13" s="246" t="s">
+        <v>213</v>
+      </c>
+      <c r="M13" s="234" t="s">
+        <v>204</v>
+      </c>
+      <c r="N13" s="222" t="s">
+        <v>194</v>
+      </c>
+      <c r="O13" s="210" t="s">
+        <v>187</v>
+      </c>
+      <c r="P13" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q13" s="186" t="s">
+        <v>166</v>
+      </c>
+      <c r="R13" s="174" t="s">
+        <v>159</v>
+      </c>
+      <c r="S13" s="162" t="s">
+        <v>149</v>
+      </c>
+      <c r="T13" s="150" t="s">
+        <v>139</v>
+      </c>
+      <c r="U13" s="138" t="s">
+        <v>128</v>
+      </c>
+      <c r="V13" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="W13" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="X13" s="102" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y13" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z13" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA13" s="0"/>
+      <c r="AB13" s="0"/>
+      <c r="AC13" s="0"/>
+    </row>
+    <row customFormat="1" r="14" s="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="0"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
+      <c r="X14" s="0"/>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
+      <c r="AB14" s="0"/>
+      <c r="AC14" s="0"/>
+    </row>
+    <row customFormat="1" r="15" s="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="0"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
+      <c r="X15" s="0"/>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+    </row>
+    <row ht="30" r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B16"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row ht="30" r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B17"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row ht="30" r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B18"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
+      <c r="X18" s="0"/>
+      <c r="Y18" s="0"/>
+      <c r="Z18" s="0"/>
     </row>
-    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row ht="30" r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B19"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
+      <c r="X19" s="0"/>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+    </row>
+    <row ht="32" r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="0"/>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0"/>
+      <c r="X20" s="0"/>
+      <c r="Y20" s="0"/>
+      <c r="Z20" s="0"/>
+    </row>
+    <row ht="30" r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="0"/>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0"/>
+      <c r="X21" s="0"/>
+      <c r="Y21" s="0"/>
+      <c r="Z21" s="0"/>
+    </row>
+    <row ht="30" r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
+      <c r="X22" s="0"/>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+    </row>
+    <row ht="30" r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="0"/>
+      <c r="U23" s="0"/>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0"/>
+      <c r="X23" s="0"/>
+      <c r="Y23" s="0"/>
+      <c r="Z23" s="0"/>
+    </row>
+    <row ht="30" r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+    </row>
+    <row ht="30" r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="0"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
+      <c r="X25" s="0"/>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+    </row>
+    <row ht="30" r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="0"/>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0"/>
+      <c r="X26" s="0"/>
+      <c r="Y26" s="0"/>
+      <c r="Z26" s="0"/>
+    </row>
+    <row ht="30" r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="0"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
+      <c r="X27" s="0"/>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>